--- a/PCB/Project Outputs for RTU_LMG/RTU_LMG_ALTIUM.xlsx
+++ b/PCB/Project Outputs for RTU_LMG/RTU_LMG_ALTIUM.xlsx
@@ -10,7 +10,7 @@
     <sheet name="01_DIN_DC_Base_Board_103_86" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01_DIN_DC_Base_Board_103_86'!$A$1:$F$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01_DIN_DC_Base_Board_103_86'!$A$1:$F$121</definedName>
   </definedNames>
   <calcPr fullPrecision="1" calcMode="auto" calcId="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
   <si>
     <t>Digi-Key_Part_Number</t>
   </si>
@@ -147,9 +147,15 @@
     <t>C33</t>
   </si>
   <si>
+    <t>CR1, CR2</t>
+  </si>
+  <si>
     <t>R30</t>
   </si>
   <si>
+    <t>IC5</t>
+  </si>
+  <si>
     <t>R32</t>
   </si>
   <si>
@@ -207,31 +213,241 @@
     <t>R21</t>
   </si>
   <si>
+    <t>S2</t>
+  </si>
+  <si>
     <t>C58</t>
   </si>
   <si>
+    <t>J2</t>
+  </si>
+  <si>
     <t>C30</t>
   </si>
   <si>
-    <t>B1, B2, B3, B4, CR1, CR2, D1, D2, D3, IC1, IC3, IC4, IC5, IC8, J2, J3, K1, K2, K3, K4, LED1, LED2, Q1, Q2, Q3, S1, U1, U2, U5</t>
-  </si>
-  <si>
-    <t>D4, IC2, J1, J4, J5, J6, J7, J8, J10, J12, J13, L2, S2, TP_3V3, TP_3V8, TP_GND1, TP_LRX1, TP_LTX1, TP_MRX, TP_MTX, TP_PWRKEY, TP_SCL, TP_SDA, TP_STATUS, TP_VBTY_CH1, U3, U4, U6, U7, U8</t>
-  </si>
-  <si>
-    <t>[NoParam], A118077TR-ND, 2019-RCWCTETR-ND, 2958-BG95M3LA-64-SGNSCT-ND</t>
-  </si>
-  <si>
-    <t>FDS6679AZ, 1N4007FL, [NoParam], AQ1250-01ETG, BQ25186DLHR, AZ2185D-ADJTRG1, TXS0102DQMR, RX8130CE, 3220-10-0100-00, PPPC031LFBN-RC, APC-817B1-SL, LTST-C170GKT, UM6K34NTCN, IRL540NSTRLPBF, PTS815 SJK 250 SMTR LFS, AZ1084CD-3.3TRG1, TJA1051T/3/1J</t>
-  </si>
-  <si>
-    <t>512-FDS6679AZ, [NoParam], 576-AQ1250-01ETG, 595-BQ25186DLHR, 621-AZ2185D-ADJTRG1, 595-TXS0102DQMR, [NoValue], 755-UM6K34NTCN, 611-PTS815SJK250SMTR</t>
-  </si>
-  <si>
-    <t>FDS6679AZ, 1N4007FL, BZX84W-C12F, AQ1250-01ETG, BQ25186DLHR, AZ2185D-ADJTRG1, TXS0102DQMR, 2N7002K, RX8130CE, 3220-10-0100-00, PPPC031LFBN-RC, APC-817B1-SL, LTST-C170GKT, UM6K34NTCN, IRL540NSTRLPBF, PTS815_SJK_250_SMTR_LFS, AZ1084CD-3.3TRG1, ESP32-WROVER-E-N16R8, TJA1051T/3/1J</t>
-  </si>
-  <si>
-    <t>SS54-HF, RAK3172-9-SM-I, TBP01R1-508-02BE, ON-OFF, B3B-XH-A, 1909763-1, 20021511-00006T4LF, SRP1265A-470M, 219-2MSTR, RCWCTE, TCA9534PWR, BG95M3LA-64-SGNS, MAX2659ELTT, LM2596DSADJG, B39162B8813P810</t>
+    <t>J12</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>K1, K2, K3, K4</t>
+  </si>
+  <si>
+    <t>D2, D3</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>IC3</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>B1, B2, B3, B4</t>
+  </si>
+  <si>
+    <t>Q2, Q3</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>LED1, LED2</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>IC2</t>
+  </si>
+  <si>
+    <t>TP_3V3, TP_3V8, TP_GND1, TP_LRX1, TP_LTX1, TP_MRX, TP_MTX, TP_PWRKEY, TP_SCL, TP_SDA, TP_STATUS, TP_VBTY_CH1</t>
+  </si>
+  <si>
+    <t>IC8</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>J1, J5, J6, J7, J8</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>IC4</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>A118077TR-ND</t>
+  </si>
+  <si>
+    <t>2958-BG95M3LA-64-SGNSCT-ND</t>
+  </si>
+  <si>
+    <t>2019-RCWCTETR-ND</t>
+  </si>
+  <si>
+    <t>1N4007FL</t>
+  </si>
+  <si>
+    <t>3220-10-0100-00</t>
+  </si>
+  <si>
+    <t>APC-817B1-SL</t>
+  </si>
+  <si>
+    <t>AQ1250-01ETG</t>
+  </si>
+  <si>
+    <t>AZ1084CD-3.3TRG1</t>
+  </si>
+  <si>
+    <t>AZ2185D-ADJTRG1</t>
+  </si>
+  <si>
+    <t>BQ25186DLHR</t>
+  </si>
+  <si>
+    <t>FDS6679AZ</t>
+  </si>
+  <si>
+    <t>IRL540NSTRLPBF</t>
+  </si>
+  <si>
+    <t>LTST-C170GKT</t>
+  </si>
+  <si>
+    <t>PPPC031LFBN-RC</t>
+  </si>
+  <si>
+    <t>PTS815 SJK 250 SMTR LFS</t>
+  </si>
+  <si>
+    <t>RX8130CE</t>
+  </si>
+  <si>
+    <t>TJA1051T/3/1J</t>
+  </si>
+  <si>
+    <t>TXS0102DQMR</t>
+  </si>
+  <si>
+    <t>UM6K34NTCN</t>
+  </si>
+  <si>
+    <t>576-AQ1250-01ETG</t>
+  </si>
+  <si>
+    <t>621-AZ2185D-ADJTRG1</t>
+  </si>
+  <si>
+    <t>595-BQ25186DLHR</t>
+  </si>
+  <si>
+    <t>512-FDS6679AZ</t>
+  </si>
+  <si>
+    <t>611-PTS815SJK250SMTR</t>
+  </si>
+  <si>
+    <t>595-TXS0102DQMR</t>
+  </si>
+  <si>
+    <t>755-UM6K34NTCN</t>
+  </si>
+  <si>
+    <t>2N7002K</t>
+  </si>
+  <si>
+    <t>219-2MSTR</t>
+  </si>
+  <si>
+    <t>1909763-1</t>
+  </si>
+  <si>
+    <t>20021511-00006T4LF</t>
+  </si>
+  <si>
+    <t>B3B-XH-A</t>
+  </si>
+  <si>
+    <t>B39162B8813P810</t>
+  </si>
+  <si>
+    <t>BG95M3LA-64-SGNS</t>
+  </si>
+  <si>
+    <t>BZX84W-C12F</t>
+  </si>
+  <si>
+    <t>ESP32-WROVER-E-N16R8</t>
+  </si>
+  <si>
+    <t>LM2596DSADJG</t>
+  </si>
+  <si>
+    <t>MAX2659ELTT</t>
+  </si>
+  <si>
+    <t>ON-OFF</t>
+  </si>
+  <si>
+    <t>PTS815_SJK_250_SMTR_LFS</t>
+  </si>
+  <si>
+    <t>RAK3172-9-SM-I</t>
+  </si>
+  <si>
+    <t>RCWCTE</t>
+  </si>
+  <si>
+    <t>SRP1265A-470M</t>
+  </si>
+  <si>
+    <t>SS54-HF</t>
+  </si>
+  <si>
+    <t>TBP01R1-508-02BE</t>
+  </si>
+  <si>
+    <t>TCA9534PWR</t>
   </si>
 </sst>
 </file>
@@ -625,7 +841,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" view="normal" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" sqref="G2"/>
@@ -751,16 +967,16 @@
     </row>
     <row r="8" spans="1:7" customHeight="1">
       <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="G8" s="2" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7" customHeight="1">
@@ -768,27 +984,24 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" customHeight="1">
       <c r="A10" s="2">
         <v>1</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:7" customHeight="1">
@@ -796,27 +1009,27 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" customHeight="1">
       <c r="A12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" customHeight="1">
@@ -824,69 +1037,69 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" customHeight="1">
       <c r="A14" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7" customHeight="1">
       <c r="A15" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" customHeight="1">
       <c r="A16" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7" customHeight="1">
       <c r="A17" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" customHeight="1">
@@ -894,55 +1107,55 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:7" customHeight="1">
       <c r="A19" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:7" customHeight="1">
       <c r="A20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:7" customHeight="1">
       <c r="A21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:7" customHeight="1">
@@ -950,97 +1163,97 @@
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:7" customHeight="1">
       <c r="A23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>56</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:7" customHeight="1">
       <c r="A24" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:7" customHeight="1">
       <c r="A25" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:7" customHeight="1">
       <c r="A26" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>59</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:7" customHeight="1">
       <c r="A27" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>60</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:7" customHeight="1">
       <c r="A28" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:7" customHeight="1">
@@ -1048,48 +1261,472 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>62</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:7" customHeight="1">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="G30" s="2" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:7" customHeight="1">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="G31" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" customHeight="1">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="E32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" customHeight="1">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" customHeight="1">
+      <c r="A34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" customHeight="1">
+      <c r="A35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" customHeight="1">
+      <c r="A36" s="2">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="E36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" customHeight="1">
+      <c r="A37" s="2">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" customHeight="1">
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" customHeight="1">
+      <c r="A39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" customHeight="1">
+      <c r="A40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" customHeight="1">
+      <c r="A41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" customHeight="1">
+      <c r="A42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" customHeight="1">
+      <c r="A43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" customHeight="1">
+      <c r="A44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" customHeight="1">
+      <c r="A45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" customHeight="1">
+      <c r="A46" s="2">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" customHeight="1">
+      <c r="A47" s="2">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" customHeight="1">
+      <c r="A48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" customHeight="1">
+      <c r="A49" s="2">
+        <v>2</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" customHeight="1">
+      <c r="A50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" customHeight="1">
+      <c r="A51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" customHeight="1">
+      <c r="A52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" customHeight="1">
+      <c r="A53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" customHeight="1">
+      <c r="A54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" customHeight="1">
+      <c r="A55" s="2">
+        <v>12</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" customHeight="1">
+      <c r="A56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" customHeight="1">
+      <c r="A57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" customHeight="1">
+      <c r="A58" s="2">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" customHeight="1">
+      <c r="A59" s="2">
+        <v>5</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" customHeight="1">
+      <c r="A60" s="2">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" customHeight="1">
+      <c r="A61" s="2">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" customHeight="1">
+      <c r="A62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" customHeight="1">
+      <c r="A63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F89"/>
+  <autoFilter ref="A1:F121"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
